--- a/옵션_1개짜리_상품.xlsx
+++ b/옵션_1개짜리_상품.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\smartstore-detail-crawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2D5F72-0539-4836-B1A2-FF9410D044CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71827478-B8D8-4079-96F3-E97FC9A1F1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>상품명</t>
   </si>
@@ -34,6 +34,12 @@
   <si>
     <t>https://smartstore.naver.com/costho/products/7984425980</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스트코 암앤해머 베이킹소다 6.12kg 또는 대용량 과탄산소다 5kg</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/dokkaebistore/products/4894483394</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -443,6 +449,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
